--- a/biology/Zoologie/Cepora/Cepora.xlsx
+++ b/biology/Zoologie/Cepora/Cepora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cepora regroupe des lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae présents en Australasie.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé par Gustav Johan Billberg en 1820.
-Synonyme : Huphina Moore, [1881].
+Synonyme : Huphina Moore, .
 Ils se nomment Gulls en anglais.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cepora abnormis (Wallace, 1867); présent en Nouvelle-Guinée.
 Cepora abnormis abnormis
@@ -603,9 +619,9 @@
 Cepora nerissa (Fabricius, 1775).
 Cepora nerissa nerissa
 Cepora nerissa cibyra Fruhstorfer;
-Cepora nerissa coronis (Cramer, [1775])
+Cepora nerissa coronis (Cramer, )
 Cepora nerissa corva (Wallace, 1867)
-Cepora nerissa dapha (Moore, [1879])
+Cepora nerissa dapha (Moore, )
 Cepora nerissa evagete Cramer;
 Cepora nerissa lichenosa Moore;
 Cepora nerissa physkon Fruhstorfer;
